--- a/src/test/java/Data/LastUserData11.xlsx
+++ b/src/test/java/Data/LastUserData11.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4a3206382ad9fdc/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AB1EE0C9-A789-4A56-B7D8-571C19D627D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA5F2CBE-4904-4021-AFF2-892D05F9AF08}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F5B6978-2ACE-4D3B-889C-7B4DBFB67040}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4008"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -425,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9241769A-4B95-4B05-AD94-54C92A421ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/java/Data/LastUserData11.xlsx
+++ b/src/test/java/Data/LastUserData11.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
